--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.40257566666667</v>
+        <v>12.65739733333333</v>
       </c>
       <c r="H2">
-        <v>37.20772700000001</v>
+        <v>37.972192</v>
       </c>
       <c r="I2">
-        <v>0.3428195387305676</v>
+        <v>0.2956675086955257</v>
       </c>
       <c r="J2">
-        <v>0.3428195387305676</v>
+        <v>0.2956675086955256</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N2">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O2">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P2">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q2">
-        <v>39.90802817672235</v>
+        <v>21.51526760121955</v>
       </c>
       <c r="R2">
-        <v>359.1722535905011</v>
+        <v>193.637408410976</v>
       </c>
       <c r="S2">
-        <v>0.0925933055047593</v>
+        <v>0.2211828679318576</v>
       </c>
       <c r="T2">
-        <v>0.09259330550475933</v>
+        <v>0.2211828679318576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.40257566666667</v>
+        <v>12.65739733333333</v>
       </c>
       <c r="H3">
-        <v>37.20772700000001</v>
+        <v>37.972192</v>
       </c>
       <c r="I3">
-        <v>0.3428195387305676</v>
+        <v>0.2956675086955257</v>
       </c>
       <c r="J3">
-        <v>0.3428195387305676</v>
+        <v>0.2956675086955256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N3">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O3">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P3">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q3">
-        <v>107.8483537410528</v>
+        <v>7.245393792003556</v>
       </c>
       <c r="R3">
-        <v>970.6351836694752</v>
+        <v>65.208544128032</v>
       </c>
       <c r="S3">
-        <v>0.2502262332258083</v>
+        <v>0.07448464076366801</v>
       </c>
       <c r="T3">
-        <v>0.2502262332258083</v>
+        <v>0.07448464076366799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>31.971419</v>
       </c>
       <c r="I4">
-        <v>0.294573950033059</v>
+        <v>0.2489429581834726</v>
       </c>
       <c r="J4">
-        <v>0.2945739500330591</v>
+        <v>0.2489429581834726</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N4">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O4">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P4">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q4">
-        <v>34.29170210536633</v>
+        <v>18.11519428153411</v>
       </c>
       <c r="R4">
-        <v>308.625318948297</v>
+        <v>163.036748533807</v>
       </c>
       <c r="S4">
-        <v>0.07956248891225377</v>
+        <v>0.1862291791390679</v>
       </c>
       <c r="T4">
-        <v>0.0795624889122538</v>
+        <v>0.1862291791390679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>31.971419</v>
       </c>
       <c r="I5">
-        <v>0.294573950033059</v>
+        <v>0.2489429581834726</v>
       </c>
       <c r="J5">
-        <v>0.2945739500330591</v>
+        <v>0.2489429581834726</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N5">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O5">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P5">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q5">
-        <v>92.67066773295278</v>
+        <v>6.10039896417211</v>
       </c>
       <c r="R5">
-        <v>834.036009596575</v>
+        <v>54.903590677549</v>
       </c>
       <c r="S5">
-        <v>0.2150114611208052</v>
+        <v>0.06271377904440464</v>
       </c>
       <c r="T5">
-        <v>0.2150114611208053</v>
+        <v>0.06271377904440464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.916194666666667</v>
+        <v>8.42886</v>
       </c>
       <c r="H6">
-        <v>8.748584000000001</v>
+        <v>25.28658</v>
       </c>
       <c r="I6">
-        <v>0.08060652378538533</v>
+        <v>0.1968919811642716</v>
       </c>
       <c r="J6">
-        <v>0.08060652378538534</v>
+        <v>0.1968919811642716</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N6">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O6">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P6">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q6">
-        <v>9.383500819021336</v>
+        <v>14.32752513786</v>
       </c>
       <c r="R6">
-        <v>84.45150737119202</v>
+        <v>128.94772624074</v>
       </c>
       <c r="S6">
-        <v>0.02177129258785545</v>
+        <v>0.1472908986815497</v>
       </c>
       <c r="T6">
-        <v>0.02177129258785546</v>
+        <v>0.1472908986815497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.916194666666667</v>
+        <v>8.42886</v>
       </c>
       <c r="H7">
-        <v>8.748584000000001</v>
+        <v>25.28658</v>
       </c>
       <c r="I7">
-        <v>0.08060652378538533</v>
+        <v>0.1968919811642716</v>
       </c>
       <c r="J7">
-        <v>0.08060652378538534</v>
+        <v>0.1968919811642716</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N7">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O7">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P7">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q7">
-        <v>25.35818385157778</v>
+        <v>4.82487894702</v>
       </c>
       <c r="R7">
-        <v>228.2236546642</v>
+        <v>43.42391052318</v>
       </c>
       <c r="S7">
-        <v>0.05883523119752987</v>
+        <v>0.04960108248272188</v>
       </c>
       <c r="T7">
-        <v>0.05883523119752989</v>
+        <v>0.04960108248272188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.655179333333333</v>
+        <v>4.628994666666666</v>
       </c>
       <c r="H8">
-        <v>13.965538</v>
+        <v>13.886984</v>
       </c>
       <c r="I8">
-        <v>0.1286737912069773</v>
+        <v>0.1081299168237279</v>
       </c>
       <c r="J8">
-        <v>0.1286737912069773</v>
+        <v>0.1081299168237279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N8">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O8">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P8">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q8">
-        <v>14.97906829963267</v>
+        <v>7.868446913305776</v>
       </c>
       <c r="R8">
-        <v>134.811614696694</v>
+        <v>70.81602221975199</v>
       </c>
       <c r="S8">
-        <v>0.03475394577508926</v>
+        <v>0.08088979819874026</v>
       </c>
       <c r="T8">
-        <v>0.03475394577508929</v>
+        <v>0.08088979819874025</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.655179333333333</v>
+        <v>4.628994666666666</v>
       </c>
       <c r="H9">
-        <v>13.965538</v>
+        <v>13.886984</v>
       </c>
       <c r="I9">
-        <v>0.1286737912069773</v>
+        <v>0.1081299168237279</v>
       </c>
       <c r="J9">
-        <v>0.1286737912069773</v>
+        <v>0.1081299168237279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N9">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O9">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P9">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q9">
-        <v>40.47977137673889</v>
+        <v>2.649746100073778</v>
       </c>
       <c r="R9">
-        <v>364.31794239065</v>
+        <v>23.847714900664</v>
       </c>
       <c r="S9">
-        <v>0.09391984543188803</v>
+        <v>0.0272401186249876</v>
       </c>
       <c r="T9">
-        <v>0.09391984543188807</v>
+        <v>0.0272401186249876</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.547057666666666</v>
+        <v>6.437173</v>
       </c>
       <c r="H10">
-        <v>16.641173</v>
+        <v>19.311519</v>
       </c>
       <c r="I10">
-        <v>0.1533261962440107</v>
+        <v>0.1503676351330023</v>
       </c>
       <c r="J10">
-        <v>0.1533261962440107</v>
+        <v>0.1503676351330023</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.217721</v>
+        <v>1.699817666666666</v>
       </c>
       <c r="N10">
-        <v>9.653163000000001</v>
+        <v>5.099453</v>
       </c>
       <c r="O10">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="P10">
-        <v>0.2700934312193076</v>
+        <v>0.748079722752454</v>
       </c>
       <c r="Q10">
-        <v>17.84888394224433</v>
+        <v>10.94202038878967</v>
       </c>
       <c r="R10">
-        <v>160.639955480199</v>
+        <v>98.47818349910699</v>
       </c>
       <c r="S10">
-        <v>0.04141239843934975</v>
+        <v>0.1124869788012385</v>
       </c>
       <c r="T10">
-        <v>0.04141239843934977</v>
+        <v>0.1124869788012385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.547057666666666</v>
+        <v>6.437173</v>
       </c>
       <c r="H11">
-        <v>16.641173</v>
+        <v>19.311519</v>
       </c>
       <c r="I11">
-        <v>0.1533261962440107</v>
+        <v>0.1503676351330023</v>
       </c>
       <c r="J11">
-        <v>0.1533261962440107</v>
+        <v>0.1503676351330023</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.695641666666667</v>
+        <v>0.5724236666666667</v>
       </c>
       <c r="N11">
-        <v>26.086925</v>
+        <v>1.717271</v>
       </c>
       <c r="O11">
-        <v>0.7299065687806924</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="P11">
-        <v>0.7299065687806925</v>
+        <v>0.2519202772475459</v>
       </c>
       <c r="Q11">
-        <v>48.23522577366944</v>
+        <v>3.684790171627667</v>
       </c>
       <c r="R11">
-        <v>434.117031963025</v>
+        <v>33.163111544649</v>
       </c>
       <c r="S11">
-        <v>0.1119137978046609</v>
+        <v>0.03788065633176376</v>
       </c>
       <c r="T11">
-        <v>0.1119137978046609</v>
+        <v>0.03788065633176375</v>
       </c>
     </row>
   </sheetData>
